--- a/MEAN Stack - Akash Kale - Updated.xlsx
+++ b/MEAN Stack - Akash Kale - Updated.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91990\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91990\Desktop\MEAN Stack\MEAN Stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -9660,8 +9660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B599"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10406,8 +10406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D560"/>
   <sheetViews>
-    <sheetView topLeftCell="A349" workbookViewId="0">
-      <selection activeCell="C371" sqref="C371"/>
+    <sheetView tabSelected="1" topLeftCell="A540" workbookViewId="0">
+      <selection activeCell="A558" sqref="A558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
